--- a/version1/result_different_confounder.xlsx
+++ b/version1/result_different_confounder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\version1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135A209-4BB0-4F2A-B56B-1705A776C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49046D0-E525-4E20-B7BA-5980C446602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="68">
   <si>
     <t>β0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,293 @@
         <charset val="134"/>
       </rPr>
       <t>的效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>observed confounders</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题不能通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>embedding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bias</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（考虑到可能涉及样本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>unbalanced</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的问题）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：部分</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>observed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>embedding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制一定的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bias</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>embedding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否利用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的信息效果不明显）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：不可观测</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>confounder</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>embedding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以降</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bias</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +1047,12 @@
     <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,8 +1068,8 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -784,7 +1077,16 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B115F0AB-A053-4A52-91E6-C74BC6545841}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I24"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
@@ -1126,15 +1428,15 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
@@ -1143,21 +1445,21 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
@@ -1166,7 +1468,7 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1376,13 +1678,13 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
@@ -1391,17 +1693,17 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
@@ -1410,7 +1712,7 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1580,15 +1882,15 @@
       <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="26"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
@@ -1597,21 +1899,21 @@
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
@@ -1620,7 +1922,7 @@
       <c r="B26" s="1">
         <v>1.5</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
@@ -1827,15 +2129,15 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="26"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
@@ -1844,21 +2146,21 @@
       <c r="B35" s="1">
         <v>1.5</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="25" t="s">
+      <c r="G35" s="28"/>
+      <c r="H35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
@@ -1867,7 +2169,7 @@
       <c r="B36" s="1">
         <v>1.5</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2074,15 +2376,15 @@
       <c r="B44" s="1">
         <v>0</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="26"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
@@ -2091,21 +2393,21 @@
       <c r="B45" s="1">
         <v>1.5</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="25" t="s">
+      <c r="G45" s="28"/>
+      <c r="H45" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="26"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
@@ -2114,7 +2416,7 @@
       <c r="B46" s="1">
         <v>1.5</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="6" t="s">
         <v>13</v>
       </c>
@@ -2348,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF46B14-952F-416E-9554-F52D9BF030EB}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2430,21 +2732,21 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
@@ -2453,33 +2755,33 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
@@ -2488,7 +2790,7 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2832,2361 +3134,2461 @@
         <v>3.1299999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="22"/>
-      <c r="L13" s="17"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="26"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>1.5</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E17" s="15">
-        <f t="shared" ref="E17:E22" si="6">ABS(D17-$F$2)</f>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0.30159999999999998</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" ref="G17:G22" si="7">ABS(F17-$F$2)</f>
-        <v>1.5999999999999903E-3</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.30170000000000002</v>
-      </c>
-      <c r="I17" s="15">
-        <f t="shared" ref="I17:I22" si="8">ABS(H17-$F$2)</f>
-        <v>1.7000000000000348E-3</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0.30180000000000001</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" ref="K17:K22" si="9">ABS(J17-$F$2)</f>
-        <v>1.8000000000000238E-3</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0.30159999999999998</v>
-      </c>
-      <c r="M17" s="14">
-        <f t="shared" ref="M17:M22" si="10">ABS(L17-$F$2)</f>
-        <v>1.5999999999999903E-3</v>
-      </c>
-      <c r="N17" s="18">
-        <v>0.3019</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" ref="O17:O22" si="11">ABS(N17-$F$2)</f>
-        <v>1.9000000000000128E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>0.2</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" ref="E18:E23" si="6">ABS(D18-$F$2)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:G23" si="7">ABS(F18-$F$2)</f>
+        <v>1.5999999999999903E-3</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" ref="I18:I23" si="8">ABS(H18-$F$2)</f>
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" ref="K18:K23" si="9">ABS(J18-$F$2)</f>
+        <v>1.8000000000000238E-3</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" ref="M18:M23" si="10">ABS(L18-$F$2)</f>
+        <v>1.5999999999999903E-3</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0.3019</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" ref="O18:O23" si="11">ABS(N18-$F$2)</f>
+        <v>1.9000000000000128E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="19">
         <v>0.3039</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <f t="shared" si="6"/>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <v>0.30420000000000003</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="7"/>
         <v>4.200000000000037E-3</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H19" s="23">
         <v>0.30370000000000003</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <f t="shared" si="8"/>
         <v>3.7000000000000366E-3</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>0.30399999999999999</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="8">
         <f t="shared" si="9"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L19" s="19">
         <v>0.30430000000000001</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M19" s="8">
         <f t="shared" si="10"/>
         <v>4.300000000000026E-3</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N19" s="23">
         <v>0.30370000000000003</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <f t="shared" si="11"/>
         <v>3.7000000000000366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="18">
         <v>0.30769999999999997</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <f t="shared" si="6"/>
         <v>7.6999999999999846E-3</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F20" s="18">
         <v>0.29959999999999998</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <f t="shared" si="7"/>
         <v>4.0000000000001146E-4</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <v>0.30409999999999998</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <f t="shared" si="8"/>
         <v>4.0999999999999925E-3</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="18">
         <v>0.30769999999999997</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <f t="shared" si="9"/>
         <v>7.6999999999999846E-3</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L20" s="24">
         <v>0.29970000000000002</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <f t="shared" si="10"/>
         <v>2.9999999999996696E-4</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N20" s="18">
         <v>0.30330000000000001</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O20" s="15">
         <f t="shared" si="11"/>
         <v>3.3000000000000251E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="19">
         <v>0.31780000000000003</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <f t="shared" si="6"/>
         <v>1.7800000000000038E-2</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F21" s="23">
         <v>0.30580000000000002</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <f t="shared" si="7"/>
         <v>5.8000000000000274E-3</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>0.31090000000000001</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <f t="shared" si="8"/>
         <v>1.0900000000000021E-2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J21" s="19">
         <v>0.31780000000000003</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21" s="8">
         <f t="shared" si="9"/>
         <v>1.7800000000000038E-2</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L21" s="23">
         <v>0.30580000000000002</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <f t="shared" si="10"/>
         <v>5.8000000000000274E-3</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N21" s="19">
         <v>0.31080000000000002</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="11"/>
         <v>1.0800000000000032E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C21" s="12" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <v>0.3251</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <f t="shared" si="6"/>
         <v>2.5100000000000011E-2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F22" s="18">
         <v>0.29370000000000002</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <f t="shared" si="7"/>
         <v>6.2999999999999723E-3</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H22" s="24">
         <v>0.29849999999999999</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <f t="shared" si="8"/>
         <v>1.5000000000000013E-3</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="18">
         <v>0.32779999999999998</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K22" s="15">
         <f t="shared" si="9"/>
         <v>2.7799999999999991E-2</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L22" s="18">
         <v>0.29649999999999999</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M22" s="15">
         <f t="shared" si="10"/>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N22" s="18">
         <v>0.3034</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O22" s="15">
         <f t="shared" si="11"/>
         <v>3.4000000000000141E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C22" s="6" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="19">
         <v>0.35670000000000002</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <f t="shared" si="6"/>
         <v>5.6700000000000028E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="19">
         <v>0.3382</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <f t="shared" si="7"/>
         <v>3.8200000000000012E-2</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H23" s="23">
         <v>0.33460000000000001</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <f t="shared" si="8"/>
         <v>3.460000000000002E-2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <v>0.37009999999999998</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23" s="8">
         <f t="shared" si="9"/>
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L23" s="19">
         <v>0.34010000000000001</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M23" s="8">
         <f t="shared" si="10"/>
         <v>4.0100000000000025E-2</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N23" s="19">
         <v>0.3448</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="11"/>
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="26"/>
-    </row>
-    <row r="25" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="26"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>1.5</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="6" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>0.2</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D29" s="18">
         <v>0.30230000000000001</v>
       </c>
-      <c r="E27" s="15">
-        <f t="shared" ref="E27:E32" si="12">ABS(D27-$F$2)</f>
+      <c r="E29" s="15">
+        <f t="shared" ref="E29:E34" si="12">ABS(D29-$F$2)</f>
         <v>2.3000000000000242E-3</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F29" s="18">
         <v>0.30220000000000002</v>
       </c>
-      <c r="G27" s="15">
-        <f t="shared" ref="G27:G32" si="13">ABS(F27-$F$2)</f>
+      <c r="G29" s="15">
+        <f t="shared" ref="G29:G34" si="13">ABS(F29-$F$2)</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H29" s="18">
         <v>0.30199999999999999</v>
       </c>
-      <c r="I27" s="15">
-        <f t="shared" ref="I27:I32" si="14">ABS(H27-$F$2)</f>
+      <c r="I29" s="15">
+        <f t="shared" ref="I29:I34" si="14">ABS(H29-$F$2)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J29" s="18">
         <v>0.30180000000000001</v>
       </c>
-      <c r="K27" s="15">
-        <f t="shared" ref="K27:K32" si="15">ABS(J27-$F$2)</f>
+      <c r="K29" s="15">
+        <f t="shared" ref="K29:K34" si="15">ABS(J29-$F$2)</f>
         <v>1.8000000000000238E-3</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L29" s="24">
         <v>0.30170000000000002</v>
       </c>
-      <c r="M27" s="14">
-        <f t="shared" ref="M27:M32" si="16">ABS(L27-$F$2)</f>
+      <c r="M29" s="14">
+        <f t="shared" ref="M29:M34" si="16">ABS(L29-$F$2)</f>
         <v>1.7000000000000348E-3</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N29" s="18">
         <v>0.30209999999999998</v>
       </c>
-      <c r="O27" s="15">
-        <f t="shared" ref="O27:O32" si="17">ABS(N27-$F$2)</f>
+      <c r="O29" s="15">
+        <f t="shared" ref="O29:O34" si="17">ABS(N29-$F$2)</f>
         <v>2.0999999999999908E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>0.2</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D30" s="19">
         <v>0.30470000000000003</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E30" s="8">
         <f t="shared" si="12"/>
         <v>4.7000000000000375E-3</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F30" s="23">
         <v>0.30249999999999999</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <f t="shared" si="13"/>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H30" s="19">
         <v>0.30380000000000001</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I30" s="8">
         <f t="shared" si="14"/>
         <v>3.8000000000000256E-3</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J30" s="19">
         <v>0.3044</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K30" s="8">
         <f t="shared" si="15"/>
         <v>4.400000000000015E-3</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L30" s="19">
         <v>0.30259999999999998</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M30" s="8">
         <f t="shared" si="16"/>
         <v>2.5999999999999912E-3</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N30" s="19">
         <v>0.30409999999999998</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O30" s="8">
         <f t="shared" si="17"/>
         <v>4.0999999999999925E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>0.75</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D31" s="18">
         <v>0.30909999999999999</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E31" s="15">
         <f t="shared" si="12"/>
         <v>9.099999999999997E-3</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F31" s="18">
         <v>0.30059999999999998</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G31" s="15">
         <f t="shared" si="13"/>
         <v>5.9999999999998943E-4</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H31" s="18">
         <v>0.30559999999999998</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I31" s="15">
         <f t="shared" si="14"/>
         <v>5.5999999999999939E-3</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J31" s="18">
         <v>0.30830000000000002</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K31" s="15">
         <f t="shared" si="15"/>
         <v>8.3000000000000296E-3</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L31" s="24">
         <v>0.30030000000000001</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M31" s="14">
         <f t="shared" si="16"/>
         <v>3.0000000000002247E-4</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N31" s="18">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O31" s="15">
         <f t="shared" si="17"/>
         <v>5.9000000000000163E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>0.25</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D32" s="19">
         <v>0.31690000000000002</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E32" s="8">
         <f t="shared" si="12"/>
         <v>1.6900000000000026E-2</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F32" s="23">
         <v>0.30959999999999999</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G32" s="11">
         <f t="shared" si="13"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H32" s="19">
         <v>0.30520000000000003</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="14"/>
         <v>5.2000000000000379E-3</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J32" s="19">
         <v>0.31690000000000002</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="15"/>
         <v>1.6900000000000026E-2</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L32" s="19">
         <v>0.31</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M32" s="8">
         <f t="shared" si="16"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N32" s="19">
         <v>0.30649999999999999</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="17"/>
         <v>6.5000000000000058E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C31" s="12" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D33" s="18">
         <v>0.33550000000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E33" s="15">
         <f t="shared" si="12"/>
         <v>3.5500000000000032E-2</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F33" s="24">
         <v>0.30809999999999998</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G33" s="14">
         <f t="shared" si="13"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H33" s="18">
         <v>0.31879999999999997</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I33" s="15">
         <f t="shared" si="14"/>
         <v>1.8799999999999983E-2</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J33" s="18">
         <v>0.33779999999999999</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K33" s="15">
         <f t="shared" si="15"/>
         <v>3.78E-2</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L33" s="18">
         <v>0.31219999999999998</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M33" s="15">
         <f t="shared" si="16"/>
         <v>1.2199999999999989E-2</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N33" s="18">
         <v>0.32090000000000002</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O33" s="15">
         <f t="shared" si="17"/>
         <v>2.090000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C32" s="6" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D34" s="19">
         <v>0.36320000000000002</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="12"/>
         <v>6.3200000000000034E-2</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F34" s="19">
         <v>0.3982</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="13"/>
         <v>9.820000000000001E-2</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H34" s="23">
         <v>0.31659999999999999</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I34" s="11">
         <f t="shared" si="14"/>
         <v>1.6600000000000004E-2</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J34" s="19">
         <v>0.37430000000000002</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K34" s="8">
         <f t="shared" si="15"/>
         <v>7.4300000000000033E-2</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L34" s="19">
         <v>0.40260000000000001</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M34" s="8">
         <f t="shared" si="16"/>
         <v>0.10260000000000002</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N34" s="19">
         <v>0.32519999999999999</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="17"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C35" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C36" s="21"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="21"/>
+      <c r="P36" s="21"/>
+    </row>
+    <row r="37" spans="1:16" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="26"/>
-    </row>
-    <row r="35" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:16" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B38" s="1">
         <v>1.5</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D38" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="25" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="25" t="s">
+      <c r="I38" s="28"/>
+      <c r="J38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="25" t="s">
+      <c r="K38" s="28"/>
+      <c r="L38" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="25" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O35" s="26"/>
-    </row>
-    <row r="36" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:16" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B39" s="1">
         <v>1.5</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="6" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B40" s="1">
         <v>0.2</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D40" s="18">
         <v>0.30280000000000001</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" ref="E37:E42" si="18">ABS(D37-$F$2)</f>
+      <c r="E40" s="15">
+        <f t="shared" ref="E40:E45" si="18">ABS(D40-$F$2)</f>
         <v>2.8000000000000247E-3</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F40" s="18">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G37" s="15">
-        <f t="shared" ref="G37:G42" si="19">ABS(F37-$F$2)</f>
+      <c r="G40" s="15">
+        <f t="shared" ref="G40:G45" si="19">ABS(F40-$F$2)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H40" s="18">
         <v>0.3024</v>
       </c>
-      <c r="I37" s="15">
-        <f t="shared" ref="I37:I42" si="20">ABS(H37-$F$2)</f>
+      <c r="I40" s="15">
+        <f t="shared" ref="I40:I45" si="20">ABS(H40-$F$2)</f>
         <v>2.4000000000000132E-3</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J40" s="18">
         <v>0.3014</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" ref="K37" si="21">ABS(J37-$F$2)</f>
+      <c r="K40" s="15">
+        <f t="shared" ref="K40" si="21">ABS(J40-$F$2)</f>
         <v>1.4000000000000123E-3</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L40" s="24">
         <v>0.30120000000000002</v>
       </c>
-      <c r="M37" s="14">
-        <f t="shared" ref="M37:M42" si="22">ABS(L37-$F$2)</f>
+      <c r="M40" s="14">
+        <f t="shared" ref="M40:M45" si="22">ABS(L40-$F$2)</f>
         <v>1.2000000000000344E-3</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N40" s="18">
         <v>0.30180000000000001</v>
       </c>
-      <c r="O37" s="15">
-        <f t="shared" ref="O37:O42" si="23">ABS(N37-$F$2)</f>
+      <c r="O40" s="15">
+        <f t="shared" ref="O40:O45" si="23">ABS(N40-$F$2)</f>
         <v>1.8000000000000238E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B41" s="1">
         <v>0.2</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D41" s="19">
         <v>0.30590000000000001</v>
       </c>
-      <c r="E38" s="8">
-        <f>ABS(D38-$F$2)</f>
+      <c r="E41" s="8">
+        <f>ABS(D41-$F$2)</f>
         <v>5.9000000000000163E-3</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F41" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G41" s="8">
         <f t="shared" si="19"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H41" s="19">
         <v>0.3039</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I41" s="8">
         <f t="shared" si="20"/>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J41" s="19">
         <v>0.30380000000000001</v>
       </c>
-      <c r="K38" s="8">
-        <f>ABS(J38-$F$2)</f>
+      <c r="K41" s="8">
+        <f>ABS(J41-$F$2)</f>
         <v>3.8000000000000256E-3</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L41" s="23">
         <v>0.30209999999999998</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M41" s="11">
         <f t="shared" si="22"/>
         <v>2.0999999999999908E-3</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N41" s="19">
         <v>0.30280000000000001</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O41" s="8">
         <f t="shared" si="23"/>
         <v>2.8000000000000247E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B42" s="1">
         <v>0.5</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D42" s="18">
         <v>0.31230000000000002</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E42" s="15">
         <f t="shared" si="18"/>
         <v>1.2300000000000033E-2</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F42" s="24">
         <v>0.2984</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G42" s="14">
         <f t="shared" si="19"/>
         <v>1.5999999999999903E-3</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H42" s="18">
         <v>0.30509999999999998</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I42" s="15">
         <f t="shared" si="20"/>
         <v>5.0999999999999934E-3</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J42" s="18">
         <v>0.30730000000000002</v>
       </c>
-      <c r="K39" s="15">
-        <f t="shared" ref="K39:K42" si="24">ABS(J39-$F$2)</f>
+      <c r="K42" s="15">
+        <f t="shared" ref="K42:K45" si="24">ABS(J42-$F$2)</f>
         <v>7.3000000000000287E-3</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L42" s="18">
         <v>0.29759999999999998</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M42" s="15">
         <f t="shared" si="22"/>
         <v>2.4000000000000132E-3</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N42" s="18">
         <v>0.30309999999999998</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O42" s="15">
         <f t="shared" si="23"/>
         <v>3.0999999999999917E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B43" s="1">
         <v>0.5</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D43" s="19">
         <v>0.31669999999999998</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E43" s="8">
         <f t="shared" si="18"/>
         <v>1.6699999999999993E-2</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F43" s="19">
         <v>0.30669999999999997</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G43" s="8">
         <f t="shared" si="19"/>
         <v>6.6999999999999837E-3</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H43" s="23">
         <v>0.29609999999999997</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I43" s="11">
         <f t="shared" si="20"/>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J43" s="19">
         <v>0.30969999999999998</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K43" s="8">
         <f t="shared" si="24"/>
         <v>9.6999999999999864E-3</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L43" s="19">
         <v>0.30649999999999999</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M43" s="8">
         <f t="shared" si="22"/>
         <v>6.5000000000000058E-3</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N43" s="19">
         <v>0.29580000000000001</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O43" s="8">
         <f t="shared" si="23"/>
         <v>4.1999999999999815E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C41" s="12" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D44" s="18">
         <v>0.33879999999999999</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E44" s="15">
         <f t="shared" si="18"/>
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F44" s="18">
         <v>0.29389999999999999</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G44" s="15">
         <f t="shared" si="19"/>
         <v>6.0999999999999943E-3</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H44" s="18">
         <v>0.30840000000000001</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I44" s="15">
         <f t="shared" si="20"/>
         <v>8.4000000000000186E-3</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J44" s="18">
         <v>0.33</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K44" s="15">
         <f t="shared" si="24"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L44" s="24">
         <v>0.29759999999999998</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M44" s="14">
         <f t="shared" si="22"/>
         <v>2.4000000000000132E-3</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N44" s="18">
         <v>0.30380000000000001</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O44" s="15">
         <f t="shared" si="23"/>
         <v>3.8000000000000256E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C42" s="6" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D45" s="19">
         <v>0.36909999999999998</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E45" s="8">
         <f t="shared" si="18"/>
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F45" s="19">
         <v>0.31659999999999999</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G45" s="8">
         <f t="shared" si="19"/>
         <v>1.6600000000000004E-2</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H45" s="23">
         <v>0.28649999999999998</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I45" s="11">
         <f t="shared" si="20"/>
         <v>1.3500000000000012E-2</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J45" s="19">
         <v>0.3594</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K45" s="8">
         <f t="shared" si="24"/>
         <v>5.9400000000000008E-2</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L45" s="19">
         <v>0.31509999999999999</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M45" s="8">
         <f t="shared" si="22"/>
         <v>1.5100000000000002E-2</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N45" s="19">
         <v>0.28299999999999997</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O45" s="8">
         <f t="shared" si="23"/>
         <v>1.7000000000000015E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C46" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="C47" s="26"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C48" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="1" t="s">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B49" s="1">
         <v>0</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C49" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D49" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="1" t="s">
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B50" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="6" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="1" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B51" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="C51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="18">
         <v>0.3034</v>
       </c>
-      <c r="E47" s="15">
-        <f t="shared" ref="E47:E52" si="25">ABS(D47-$F$2)</f>
+      <c r="E51" s="15">
+        <f t="shared" ref="E51:E56" si="25">ABS(D51-$F$2)</f>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F51" s="24">
         <v>0.30170000000000002</v>
       </c>
-      <c r="G47" s="14">
-        <f t="shared" ref="G47:G52" si="26">ABS(F47-$F$2)</f>
+      <c r="G51" s="14">
+        <f t="shared" ref="G51:G56" si="26">ABS(F51-$F$2)</f>
         <v>1.7000000000000348E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B52" s="1">
         <v>0.4</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D52" s="19">
         <v>0.30790000000000001</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E52" s="8">
         <f t="shared" si="25"/>
         <v>7.9000000000000181E-3</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F52" s="23">
         <v>0.3049</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G52" s="11">
         <f t="shared" si="26"/>
         <v>4.9000000000000155E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D53" s="18">
         <v>0.31169999999999998</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E53" s="15">
         <f t="shared" si="25"/>
         <v>1.1699999999999988E-2</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F53" s="24">
         <v>0.29899999999999999</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G53" s="14">
         <f t="shared" si="26"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B54" s="1">
         <v>0</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D54" s="20">
         <v>0.32269999999999999</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E54" s="8">
         <f t="shared" si="25"/>
         <v>2.2699999999999998E-2</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F54" s="23">
         <v>0.30330000000000001</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G54" s="11">
         <f t="shared" si="26"/>
         <v>3.3000000000000251E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="12" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D55" s="25">
         <v>0.33679999999999999</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E55" s="13">
         <f t="shared" si="25"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F55" s="24">
         <v>0.29520000000000002</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G55" s="14">
         <f t="shared" si="26"/>
         <v>4.799999999999971E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D56" s="20">
         <v>0.3654</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E56" s="9">
         <f t="shared" si="25"/>
         <v>6.5400000000000014E-2</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F56" s="23">
         <v>0.29289999999999999</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G56" s="11">
         <f t="shared" si="26"/>
         <v>7.0999999999999952E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="C57" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="C58" s="26"/>
+      <c r="P58" s="21"/>
+      <c r="R58" s="21"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C59" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="26"/>
-    </row>
-    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A55" s="1" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B60" s="1">
         <v>0</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C60" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D60" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="25" t="s">
+      <c r="E60" s="28"/>
+      <c r="F60" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25" t="s">
+      <c r="G60" s="28"/>
+      <c r="H60" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="25" t="s">
+      <c r="I60" s="28"/>
+      <c r="J60" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="25" t="s">
+      <c r="K60" s="28"/>
+      <c r="L60" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M55" s="26"/>
-      <c r="N55" s="25" t="s">
+      <c r="M60" s="28"/>
+      <c r="N60" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O55" s="26"/>
-    </row>
-    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A56" s="1" t="s">
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="6" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="O61" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="1" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B62" s="1">
         <v>0</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D62" s="25">
         <v>0.3034</v>
       </c>
-      <c r="E57" s="13">
-        <f t="shared" ref="E57:E62" si="27">ABS(D57-$F$2)</f>
+      <c r="E62" s="13">
+        <f t="shared" ref="E62" si="27">ABS(D62-$F$2)</f>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F62" s="25">
         <v>0.30170000000000002</v>
       </c>
-      <c r="G57" s="13">
-        <f t="shared" ref="G57:G62" si="28">ABS(F57-$F$2)</f>
+      <c r="G62" s="13">
+        <f t="shared" ref="G62:G67" si="28">ABS(F62-$F$2)</f>
         <v>1.7000000000000348E-3</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H62" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="I57" s="13">
-        <f t="shared" ref="I57:I62" si="29">ABS(H57-$F$2)</f>
+      <c r="I62" s="13">
+        <f t="shared" ref="I62:I67" si="29">ABS(H62-$F$2)</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J62" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="K57" s="13">
-        <f t="shared" ref="K57" si="30">ABS(J57-$F$2)</f>
+      <c r="K62" s="13">
+        <f t="shared" ref="K62" si="30">ABS(J62-$F$2)</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L62" s="24">
         <v>0.30120000000000002</v>
       </c>
-      <c r="M57" s="14">
-        <f t="shared" ref="M57:M62" si="31">ABS(L57-$F$2)</f>
+      <c r="M62" s="14">
+        <f t="shared" ref="M62:M67" si="31">ABS(L62-$F$2)</f>
         <v>1.2000000000000344E-3</v>
       </c>
-      <c r="N57" s="30">
+      <c r="N62" s="25">
         <v>0.30199999999999999</v>
       </c>
-      <c r="O57" s="13">
-        <f t="shared" ref="O57:O62" si="32">ABS(N57-$F$2)</f>
+      <c r="O62" s="13">
+        <f t="shared" ref="O62:O67" si="32">ABS(N62-$F$2)</f>
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="1" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B63" s="1">
         <v>0.4</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D63" s="20">
         <v>0.30790000000000001</v>
       </c>
-      <c r="E58" s="9">
-        <f>ABS(D58-$F$2)</f>
+      <c r="E63" s="9">
+        <f>ABS(D63-$F$2)</f>
         <v>7.9000000000000181E-3</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F63" s="20">
         <v>0.3049</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G63" s="9">
         <f t="shared" si="28"/>
         <v>4.9000000000000155E-3</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H63" s="20">
         <v>0.30499999999999999</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I63" s="9">
         <f t="shared" si="29"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J63" s="20">
         <v>0.30649999999999999</v>
       </c>
-      <c r="K58" s="9">
-        <f>ABS(J58-$F$2)</f>
+      <c r="K63" s="9">
+        <f>ABS(J63-$F$2)</f>
         <v>6.5000000000000058E-3</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L63" s="20">
         <v>0.30470000000000003</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M63" s="9">
         <f t="shared" si="31"/>
         <v>4.7000000000000375E-3</v>
       </c>
-      <c r="N58" s="23">
+      <c r="N63" s="23">
         <v>0.30459999999999998</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O63" s="11">
         <f t="shared" si="32"/>
         <v>4.599999999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="1" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B64" s="1">
         <v>0.5</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D64" s="25">
         <v>0.31169999999999998</v>
       </c>
-      <c r="E59" s="13">
-        <f t="shared" ref="E59:E62" si="33">ABS(D59-$F$2)</f>
+      <c r="E64" s="13">
+        <f t="shared" ref="E64:E67" si="33">ABS(D64-$F$2)</f>
         <v>1.1699999999999988E-2</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F64" s="25">
         <v>0.29899999999999999</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G64" s="13">
         <f t="shared" si="28"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H64" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I64" s="13">
         <f t="shared" si="29"/>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J64" s="25">
         <v>0.30990000000000001</v>
       </c>
-      <c r="K59" s="13">
-        <f t="shared" ref="K59:K62" si="34">ABS(J59-$F$2)</f>
+      <c r="K64" s="13">
+        <f t="shared" ref="K64:K67" si="34">ABS(J64-$F$2)</f>
         <v>9.9000000000000199E-3</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L64" s="24">
         <v>0.30009999999999998</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M64" s="14">
         <f t="shared" si="31"/>
         <v>9.9999999999988987E-5</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N64" s="25">
         <v>0.30199999999999999</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O64" s="13">
         <f t="shared" si="32"/>
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="1" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B65" s="1">
         <v>0.5</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D65" s="20">
         <v>0.32269999999999999</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E65" s="9">
         <f t="shared" si="33"/>
         <v>2.2699999999999998E-2</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F65" s="23">
         <v>0.30330000000000001</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G65" s="11">
         <f t="shared" si="28"/>
         <v>3.3000000000000251E-3</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H65" s="20">
         <v>0.30959999999999999</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I65" s="9">
         <f t="shared" si="29"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J65" s="20">
         <v>0.31979999999999997</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K65" s="9">
         <f t="shared" si="34"/>
         <v>1.9799999999999984E-2</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L65" s="20">
         <v>0.3044</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M65" s="9">
         <f t="shared" si="31"/>
         <v>4.400000000000015E-3</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N65" s="20">
         <v>0.30969999999999998</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O65" s="9">
         <f t="shared" si="32"/>
         <v>9.6999999999999864E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="12" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D66" s="25">
         <v>0.33679999999999999</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E66" s="13">
         <f t="shared" si="33"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F66" s="25">
         <v>0.29530000000000001</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G66" s="13">
         <f t="shared" si="28"/>
         <v>4.699999999999982E-3</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H66" s="25">
         <v>0.3014</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I66" s="13">
         <f t="shared" si="29"/>
         <v>1.4000000000000123E-3</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J66" s="25">
         <v>0.3332</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K66" s="13">
         <f t="shared" si="34"/>
         <v>3.3200000000000007E-2</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L66" s="25">
         <v>0.2954</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M66" s="13">
         <f t="shared" si="31"/>
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="N61" s="24">
+      <c r="N66" s="24">
         <v>0.30020000000000002</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O66" s="14">
         <f t="shared" si="32"/>
         <v>2.0000000000003348E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D67" s="20">
         <v>0.3654</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E67" s="9">
         <f t="shared" si="33"/>
         <v>6.5400000000000014E-2</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F67" s="20">
         <v>0.29289999999999999</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G67" s="9">
         <f t="shared" si="28"/>
         <v>7.0999999999999952E-3</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H67" s="20">
         <v>0.27700000000000002</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I67" s="9">
         <f t="shared" si="29"/>
         <v>2.2999999999999965E-2</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J67" s="20">
         <v>0.36270000000000002</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K67" s="9">
         <f t="shared" si="34"/>
         <v>6.2700000000000033E-2</v>
       </c>
-      <c r="L62" s="23">
+      <c r="L67" s="23">
         <v>0.2954</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M67" s="11">
         <f t="shared" si="31"/>
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N67" s="20">
         <v>0.27660000000000001</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O67" s="9">
         <f t="shared" si="32"/>
         <v>2.3399999999999976E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="33" t="s">
+    <row r="68" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="32"/>
-    </row>
-    <row r="65" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="1" t="s">
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="34"/>
+    </row>
+    <row r="70" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B70" s="1">
         <v>0</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C70" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="26"/>
-    </row>
-    <row r="66" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A66" s="1" t="s">
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="28"/>
+    </row>
+    <row r="71" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B71" s="1">
         <v>1.5</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C71" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D71" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="25" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="25" t="s">
+      <c r="G71" s="28"/>
+      <c r="H71" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="25" t="s">
+      <c r="I71" s="28"/>
+      <c r="J71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="26"/>
-      <c r="L66" s="25" t="s">
+      <c r="K71" s="28"/>
+      <c r="L71" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M66" s="26"/>
-      <c r="N66" s="25" t="s">
+      <c r="M71" s="28"/>
+      <c r="N71" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O66" s="26"/>
-    </row>
-    <row r="67" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
-      <c r="A67" s="1" t="s">
+      <c r="O71" s="28"/>
+    </row>
+    <row r="72" spans="1:15" ht="13.8" x14ac:dyDescent="0.5">
+      <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B72" s="1">
         <v>1.5</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="6" t="s">
+      <c r="C72" s="31"/>
+      <c r="D72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="L72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="M72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="N72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="O72" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="1" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B73" s="1">
         <v>0</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D73" s="25">
         <v>0.30209999999999998</v>
       </c>
-      <c r="E68" s="13">
-        <f t="shared" ref="E68:E73" si="35">ABS(D68-$F$2)</f>
+      <c r="E73" s="13">
+        <f t="shared" ref="E73" si="35">ABS(D73-$F$2)</f>
         <v>2.0999999999999908E-3</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F73" s="24">
         <v>0.30159999999999998</v>
       </c>
-      <c r="G68" s="14">
-        <f t="shared" ref="G68:G73" si="36">ABS(F68-$F$2)</f>
+      <c r="G73" s="14">
+        <f t="shared" ref="G73:G78" si="36">ABS(F73-$F$2)</f>
         <v>1.5999999999999903E-3</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H73" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="I68" s="13">
-        <f t="shared" ref="I68:I73" si="37">ABS(H68-$F$2)</f>
+      <c r="I73" s="13">
+        <f t="shared" ref="I73:I78" si="37">ABS(H73-$F$2)</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J73" s="25">
         <v>0.30299999999999999</v>
       </c>
-      <c r="K68" s="13">
-        <f t="shared" ref="K68" si="38">ABS(J68-$F$2)</f>
+      <c r="K73" s="13">
+        <f t="shared" ref="K73" si="38">ABS(J73-$F$2)</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L73" s="25">
         <v>0.30249999999999999</v>
       </c>
-      <c r="M68" s="13">
-        <f t="shared" ref="M68:M73" si="39">ABS(L68-$F$2)</f>
+      <c r="M73" s="13">
+        <f t="shared" ref="M73:M78" si="39">ABS(L73-$F$2)</f>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="N68" s="30">
+      <c r="N73" s="25">
         <v>0.30280000000000001</v>
       </c>
-      <c r="O68" s="13">
-        <f t="shared" ref="O68:O73" si="40">ABS(N68-$F$2)</f>
+      <c r="O73" s="13">
+        <f t="shared" ref="O73:O78" si="40">ABS(N73-$F$2)</f>
         <v>2.8000000000000247E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="1" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B74" s="1">
         <v>0.4</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D74" s="23">
         <v>0.3039</v>
       </c>
-      <c r="E69" s="11">
-        <f>ABS(D69-$F$2)</f>
+      <c r="E74" s="11">
+        <f>ABS(D74-$F$2)</f>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F74" s="20">
         <v>0.30449999999999999</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G74" s="9">
         <f t="shared" si="36"/>
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H74" s="20">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I74" s="9">
         <f t="shared" si="37"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J74" s="20">
         <v>0.30609999999999998</v>
       </c>
-      <c r="K69" s="9">
-        <f>ABS(J69-$F$2)</f>
+      <c r="K74" s="9">
+        <f>ABS(J74-$F$2)</f>
         <v>6.0999999999999943E-3</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L74" s="20">
         <v>0.30580000000000002</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M74" s="9">
         <f t="shared" si="39"/>
         <v>5.8000000000000274E-3</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N74" s="20">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O69" s="9">
+      <c r="O74" s="9">
         <f t="shared" si="40"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="1" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D75" s="25">
         <v>0.30780000000000002</v>
       </c>
-      <c r="E70" s="13">
-        <f t="shared" ref="E70:E73" si="41">ABS(D70-$F$2)</f>
+      <c r="E75" s="13">
+        <f t="shared" ref="E75:E78" si="41">ABS(D75-$F$2)</f>
         <v>7.8000000000000291E-3</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F75" s="24">
         <v>0.29970000000000002</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G75" s="14">
         <f t="shared" si="36"/>
         <v>2.9999999999996696E-4</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H75" s="25">
         <v>0.3044</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I75" s="13">
         <f t="shared" si="37"/>
         <v>4.400000000000015E-3</v>
       </c>
-      <c r="J70" s="30">
+      <c r="J75" s="25">
         <v>0.31330000000000002</v>
       </c>
-      <c r="K70" s="13">
-        <f t="shared" ref="K70:K73" si="42">ABS(J70-$F$2)</f>
+      <c r="K75" s="13">
+        <f t="shared" ref="K75:K78" si="42">ABS(J75-$F$2)</f>
         <v>1.3300000000000034E-2</v>
       </c>
-      <c r="L70" s="30">
+      <c r="L75" s="25">
         <v>0.30309999999999998</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M75" s="13">
         <f t="shared" si="39"/>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="N70" s="30">
+      <c r="N75" s="25">
         <v>0.30659999999999998</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O75" s="13">
         <f t="shared" si="40"/>
         <v>6.5999999999999948E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="1" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B76" s="1">
         <v>0</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D76" s="20">
         <v>0.31769999999999998</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E76" s="9">
         <f t="shared" si="41"/>
         <v>1.7699999999999994E-2</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F76" s="23">
         <v>0.3075</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G76" s="11">
         <f t="shared" si="36"/>
         <v>7.5000000000000067E-3</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H76" s="20">
         <v>0.30830000000000002</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I76" s="9">
         <f t="shared" si="37"/>
         <v>8.3000000000000296E-3</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J76" s="20">
         <v>0.33229999999999998</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K76" s="9">
         <f t="shared" si="42"/>
         <v>3.2299999999999995E-2</v>
       </c>
-      <c r="L71" s="20">
+      <c r="L76" s="20">
         <v>0.31169999999999998</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M76" s="9">
         <f t="shared" si="39"/>
         <v>1.1699999999999988E-2</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N76" s="20">
         <v>0.31730000000000003</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O76" s="9">
         <f t="shared" si="40"/>
         <v>1.7300000000000038E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="12" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D77" s="25">
         <v>0.32479999999999998</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E77" s="13">
         <f t="shared" si="41"/>
         <v>2.4799999999999989E-2</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F77" s="25">
         <v>0.29520000000000002</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G77" s="13">
         <f t="shared" si="36"/>
         <v>4.799999999999971E-3</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H77" s="25">
         <v>0.29380000000000001</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I77" s="13">
         <f t="shared" si="37"/>
         <v>6.1999999999999833E-3</v>
       </c>
-      <c r="J72" s="30">
+      <c r="J77" s="25">
         <v>0.34949999999999998</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K77" s="13">
         <f t="shared" si="42"/>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L77" s="24">
         <v>0.30430000000000001</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M77" s="14">
         <f t="shared" si="39"/>
         <v>4.300000000000026E-3</v>
       </c>
-      <c r="N72" s="30">
+      <c r="N77" s="25">
         <v>0.313</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O77" s="13">
         <f t="shared" si="40"/>
         <v>1.3000000000000012E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D78" s="20">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E78" s="9">
         <f t="shared" si="41"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F78" s="20">
         <v>0.3397</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G78" s="9">
         <f t="shared" si="36"/>
         <v>3.9700000000000013E-2</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H78" s="23">
         <v>0.3261</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I78" s="11">
         <f t="shared" si="37"/>
         <v>2.6100000000000012E-2</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J78" s="20">
         <v>0.41139999999999999</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K78" s="9">
         <f t="shared" si="42"/>
         <v>0.1114</v>
       </c>
-      <c r="L73" s="20">
+      <c r="L78" s="20">
         <v>0.35320000000000001</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M78" s="9">
         <f t="shared" si="39"/>
         <v>5.3200000000000025E-2</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N78" s="20">
         <v>0.36180000000000001</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O78" s="9">
         <f t="shared" si="40"/>
         <v>6.1800000000000022E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="C74" s="33" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C79" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C74:O74"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="C65:O65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C54:O54"/>
+  <mergeCells count="59">
+    <mergeCell ref="C79:O79"/>
+    <mergeCell ref="C68:O68"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="C70:O70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C59:O59"/>
+    <mergeCell ref="C57:G57"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C46:O46"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N38:O38"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
